--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_TRDBAL_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_TRDBAL_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>-0.2484423261479351</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>0.08842714827491341</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>0.07161528862875484</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>-0.05316225685740456</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>-0.02134950892280235</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.01965722750142458</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>-0.0008019423217350066</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>-0.01224067557328059</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>-0.002124726483854421</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.0001680743349557435</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>0.5884399141976939</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>-0.4287549028699392</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>0.2024727102788755</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>-0.1801298986434701</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>0.05614877178350224</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>-0.08761677478023067</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>0.0008956098327320729</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>-0.05309113107405299</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>-0.01991702155854432</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>-0.04018202004580392</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>0.0527701023327218</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>0.05023884228829745</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>0.09013031658311146</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>0.0912426384382692</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>0.07040124971995607</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>0.0704511454919744</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>0.07491434640029331</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>0.08060603410391468</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>0.1099866297234787</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>0.109553974508877</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>0.06833803888762155</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>0.06958535336048205</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>0.05686529548427463</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>0.05522630685912504</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>0.04897034927374411</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>0.04252119634720239</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>0.05617170800588368</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>0.05645906073854749</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.04797378711462061</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.04781484612648052</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.05345589478600343</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.05234008827599351</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.03180807817014738</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.03191678342109842</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.03737679439413787</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.03687944732961439</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.0378196726653369</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.03819317418140857</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.04401391770962212</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.04466337824938135</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>0.06223602550003676</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.05259014399104141</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.03303820493930883</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.0132835445680352</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>-0.02512553148398497</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.002382868661699599</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>-0.02358573525334189</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>-0.02236192844203094</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>-0.04113043908287961</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>-0.05597087107749584</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>-0.06398417096290905</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.007247256038200207</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_TRDBAL_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_TRDBAL_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>-0.2484423261479351</v>
+        <v>-0.3672931947423395</v>
       </c>
       <c r="AS2">
-        <v>0.2519950980979215</v>
+        <v>-0.2349251492717611</v>
       </c>
       <c r="AT2">
-        <v>-0.09752764704723059</v>
+        <v>0.1477315643901598</v>
       </c>
       <c r="AU2">
-        <v>0.008426813086470919</v>
+        <v>-0.1423875156511647</v>
       </c>
       <c r="AV2">
-        <v>-0.2011031689175148</v>
+        <v>-0.1712976904262997</v>
       </c>
       <c r="AW2">
-        <v>0.007367089903936905</v>
+        <v>-0.06973190223682513</v>
       </c>
       <c r="AX2">
-        <v>0.2917965963263465</v>
+        <v>0.3264502979277185</v>
       </c>
       <c r="AY2">
-        <v>0.3539621902007221</v>
+        <v>0.5374408776787802</v>
       </c>
       <c r="AZ2">
-        <v>-0.3959751124900958</v>
+        <v>0.1798435331191272</v>
       </c>
       <c r="BA2">
-        <v>0.1814699512842053</v>
+        <v>-0.1047373886068518</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>0.08842714827491341</v>
+        <v>-0.2165329584102027</v>
       </c>
       <c r="AS3">
-        <v>-0.01047193916601444</v>
+        <v>0.2748338964452498</v>
       </c>
       <c r="AT3">
-        <v>-0.02165036546438159</v>
+        <v>-0.1046885644149391</v>
       </c>
       <c r="AU3">
-        <v>0.01925922851672483</v>
+        <v>0.03672667038412315</v>
       </c>
       <c r="AV3">
-        <v>-0.1040819504497453</v>
+        <v>-0.07409559612744232</v>
       </c>
       <c r="AW3">
-        <v>-0.03427301801064874</v>
+        <v>0.03803164275673973</v>
       </c>
       <c r="AX3">
-        <v>-0.1347662680142063</v>
+        <v>0.2318505961559854</v>
       </c>
       <c r="AY3">
-        <v>-0.05075374960675554</v>
+        <v>0.2710069146292678</v>
       </c>
       <c r="AZ3">
-        <v>0.06550133282979273</v>
+        <v>-0.4593879735568319</v>
       </c>
       <c r="BA3">
-        <v>-0.08051822560468189</v>
+        <v>0.1715297545448939</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>0.07161528862875484</v>
+        <v>0.1676424714550495</v>
       </c>
       <c r="AS4">
-        <v>-0.10719057562779</v>
+        <v>0.02309918749673102</v>
       </c>
       <c r="AT4">
-        <v>0.04523841625208874</v>
+        <v>-0.03178037713020498</v>
       </c>
       <c r="AU4">
-        <v>-0.01616524385581889</v>
+        <v>0.05134372359743421</v>
       </c>
       <c r="AV4">
-        <v>0.09498639262412359</v>
+        <v>0.08292164846456163</v>
       </c>
       <c r="AW4">
-        <v>-0.02920491061601137</v>
+        <v>0.001961603668071833</v>
       </c>
       <c r="AX4">
-        <v>-0.1368355339965506</v>
+        <v>-0.2537476525895095</v>
       </c>
       <c r="AY4">
-        <v>-0.2083631755213902</v>
+        <v>-0.3264051876140091</v>
       </c>
       <c r="AZ4">
-        <v>0.06821529545558283</v>
+        <v>-0.0543496034484027</v>
       </c>
       <c r="BA4">
-        <v>-0.1325943275125199</v>
+        <v>-0.08955556109981566</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>-0.05316225685740456</v>
+        <v>0.02645060899003516</v>
       </c>
       <c r="AS5">
-        <v>0.01556856394519909</v>
+        <v>-0.1229088648918345</v>
       </c>
       <c r="AT5">
-        <v>0.002422880371575082</v>
+        <v>0.04784072463408408</v>
       </c>
       <c r="AU5">
-        <v>-0.01255634120257245</v>
+        <v>-0.01835212821028905</v>
       </c>
       <c r="AV5">
-        <v>0.01472175495202318</v>
+        <v>0.01401944412383279</v>
       </c>
       <c r="AW5">
-        <v>-0.01353781154378274</v>
+        <v>-0.03101901848541379</v>
       </c>
       <c r="AX5">
-        <v>0.03133289761379731</v>
+        <v>-0.09489494490492142</v>
       </c>
       <c r="AY5">
-        <v>-0.04792450020976103</v>
+        <v>-0.1232996424682076</v>
       </c>
       <c r="AZ5">
-        <v>-0.1132003603875313</v>
+        <v>0.115928503999926</v>
       </c>
       <c r="BA5">
-        <v>-0.03095323262129705</v>
+        <v>-0.1381332057268065</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>-0.02134950892280235</v>
+        <v>-0.09319938722784434</v>
       </c>
       <c r="AS6">
-        <v>0.02726933341001372</v>
+        <v>0.006846918903707864</v>
       </c>
       <c r="AT6">
-        <v>-0.01388012798283517</v>
+        <v>0.003609237214794813</v>
       </c>
       <c r="AU6">
-        <v>-1.627693402521131E-05</v>
+        <v>-0.008880481467128911</v>
       </c>
       <c r="AV6">
-        <v>-0.04229329896270594</v>
+        <v>-0.03076063667688923</v>
       </c>
       <c r="AW6">
-        <v>-0.01957441992126829</v>
+        <v>-0.009735703104090453</v>
       </c>
       <c r="AX6">
-        <v>-0.005534029700704539</v>
+        <v>0.0674724642825914</v>
       </c>
       <c r="AY6">
-        <v>-0.01660472621210447</v>
+        <v>0.06264240308728028</v>
       </c>
       <c r="AZ6">
-        <v>-0.07727318671079994</v>
+        <v>-0.07504872176536101</v>
       </c>
       <c r="BA6">
-        <v>-0.0315056670673531</v>
+        <v>-0.03715673564338814</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.01965722750142458</v>
+        <v>-0.01245065153733274</v>
       </c>
       <c r="AS7">
-        <v>-0.02304660951346922</v>
+        <v>0.03637163266066484</v>
       </c>
       <c r="AT7">
-        <v>0.005762990074501651</v>
+        <v>-0.01702732914942295</v>
       </c>
       <c r="AU7">
-        <v>-0.004093234805732641</v>
+        <v>0.01499737271074666</v>
       </c>
       <c r="AV7">
-        <v>0.0003867541576033596</v>
+        <v>0.004361231187825682</v>
       </c>
       <c r="AW7">
-        <v>-0.02442183807704981</v>
+        <v>-0.001971413627707469</v>
       </c>
       <c r="AX7">
-        <v>-0.06338953109026735</v>
+        <v>-0.03843126301042682</v>
       </c>
       <c r="AY7">
-        <v>-0.07582899441066421</v>
+        <v>-0.04511569129504447</v>
       </c>
       <c r="AZ7">
-        <v>-0.01349818112688271</v>
+        <v>-0.1042385137745008</v>
       </c>
       <c r="BA7">
-        <v>-0.06709164946558574</v>
+        <v>-0.03888380201712024</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>-0.0008019423217350066</v>
+        <v>0.0169300192658625</v>
       </c>
       <c r="AS8">
-        <v>-0.01695366278002095</v>
+        <v>-0.02075656732541642</v>
       </c>
       <c r="AT8">
-        <v>0.007796958122766548</v>
+        <v>0.003971506377852308</v>
       </c>
       <c r="AU8">
-        <v>-0.007925207648816407</v>
+        <v>0.006370905556455999</v>
       </c>
       <c r="AV8">
-        <v>0.01237802287142501</v>
+        <v>0.01394126029323193</v>
       </c>
       <c r="AW8">
-        <v>-0.02073488856913514</v>
+        <v>-0.01187031584952652</v>
       </c>
       <c r="AX8">
-        <v>-0.03593183423244712</v>
+        <v>-0.07971978643839883</v>
       </c>
       <c r="AY8">
-        <v>-0.07821181988480866</v>
+        <v>-0.0952087009629963</v>
       </c>
       <c r="AZ8">
-        <v>-0.04058257931879902</v>
+        <v>-0.02413593512302314</v>
       </c>
       <c r="BA8">
-        <v>-0.06030241369460054</v>
+        <v>-0.07411166539440739</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>-0.01224067557328059</v>
+        <v>-0.02087964868597663</v>
       </c>
       <c r="AS9">
-        <v>0.001364267989179031</v>
+        <v>-0.02013885809412882</v>
       </c>
       <c r="AT9">
-        <v>-6.786446354844914E-05</v>
+        <v>0.007309254317241189</v>
       </c>
       <c r="AU9">
-        <v>-0.005560829614006273</v>
+        <v>-0.0006588535719245408</v>
       </c>
       <c r="AV9">
-        <v>-0.006279200346016119</v>
+        <v>-0.001229695658759979</v>
       </c>
       <c r="AW9">
-        <v>-0.01969645877826742</v>
+        <v>-0.01258667319490442</v>
       </c>
       <c r="AX9">
-        <v>-0.01933800508300447</v>
+        <v>-0.02560746915049621</v>
       </c>
       <c r="AY9">
-        <v>-0.05763917349595568</v>
+        <v>-0.04651971491318876</v>
       </c>
       <c r="AZ9">
-        <v>-0.06005480292299195</v>
+        <v>-0.02834965963774415</v>
       </c>
       <c r="BA9">
-        <v>-0.04906568340580106</v>
+        <v>-0.06693458902910257</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>-0.002124726483854421</v>
+        <v>-0.02423935365118435</v>
       </c>
       <c r="AS10">
-        <v>-0.004888324345864056</v>
+        <v>0.002109172094683343</v>
       </c>
       <c r="AT10">
-        <v>0.0008188910668128504</v>
+        <v>-0.0012975766035299</v>
       </c>
       <c r="AU10">
-        <v>-0.004632452034608979</v>
+        <v>0.004050575134226861</v>
       </c>
       <c r="AV10">
-        <v>-0.006668313452934328</v>
+        <v>-0.001699960681112707</v>
       </c>
       <c r="AW10">
-        <v>-0.02146083338530495</v>
+        <v>-0.008640896857387753</v>
       </c>
       <c r="AX10">
-        <v>-0.03385117851158346</v>
+        <v>-0.02180294140081386</v>
       </c>
       <c r="AY10">
-        <v>-0.05971491060995764</v>
+        <v>-0.03645861429937034</v>
       </c>
       <c r="AZ10">
-        <v>-0.04546945474608788</v>
+        <v>-0.05874482872536609</v>
       </c>
       <c r="BA10">
-        <v>-0.05353206884202923</v>
+        <v>-0.05587054962715828</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.0001680743349557435</v>
+        <v>-0.008764427383978302</v>
       </c>
       <c r="AS11">
-        <v>-0.01070296915794403</v>
+        <v>-0.00287772103948572</v>
       </c>
       <c r="AT11">
-        <v>0.003609502857125762</v>
+        <v>-0.0007384961497854088</v>
       </c>
       <c r="AU11">
-        <v>-0.005723015647307003</v>
+        <v>0.00565617557508011</v>
       </c>
       <c r="AV11">
-        <v>0.0004183839777926366</v>
+        <v>0.004096692342412945</v>
       </c>
       <c r="AW11">
-        <v>-0.02143613747975725</v>
+        <v>-0.009264319550597627</v>
       </c>
       <c r="AX11">
-        <v>-0.03712322686456074</v>
+        <v>-0.04519308744403873</v>
       </c>
       <c r="AY11">
-        <v>-0.06645333097226587</v>
+        <v>-0.05626183947516625</v>
       </c>
       <c r="AZ11">
-        <v>-0.04081184980408119</v>
+        <v>-0.05118759969024681</v>
       </c>
       <c r="BA11">
-        <v>-0.05664975614739323</v>
+        <v>-0.0604604648519208</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>-0.1054010357641076</v>
       </c>
       <c r="AG53">
-        <v>-0.4485939922820067</v>
+        <v>-0.2672013185147806</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>-0.052100071634148</v>
       </c>
       <c r="AG54">
-        <v>0.05775064058154487</v>
+        <v>-0.3908756397905542</v>
       </c>
       <c r="AH54">
-        <v>-0.4648223037085923</v>
+        <v>-1.165731449023777</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>-0.05939875319414657</v>
       </c>
       <c r="AG55">
-        <v>-0.09358438613063075</v>
+        <v>-0.1516491120502389</v>
       </c>
       <c r="AH55">
-        <v>0.07354256977585988</v>
+        <v>0.2279118747877362</v>
       </c>
       <c r="AI55">
-        <v>-0.2820145485031504</v>
+        <v>-0.4946292545328451</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>-0.05553084795367583</v>
       </c>
       <c r="AG56">
-        <v>-0.05588462291703119</v>
+        <v>-0.1570840800859244</v>
       </c>
       <c r="AH56">
-        <v>0.03764835263912085</v>
+        <v>-0.1051777043708762</v>
       </c>
       <c r="AI56">
-        <v>0.1501116289474009</v>
+        <v>0.06778971455340732</v>
       </c>
       <c r="AJ56">
-        <v>0.3373169092958574</v>
+        <v>0.1086676194947807</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>-0.05621663915425965</v>
       </c>
       <c r="AG57">
-        <v>-0.06608513468529707</v>
+        <v>-0.1343214713312565</v>
       </c>
       <c r="AH57">
-        <v>-0.006050028238517913</v>
+        <v>-0.02844774548780462</v>
       </c>
       <c r="AI57">
-        <v>0.08847868971792155</v>
+        <v>0.04862203492004667</v>
       </c>
       <c r="AJ57">
-        <v>0.1013040049059581</v>
+        <v>0.1844844710576326</v>
       </c>
       <c r="AK57">
-        <v>0.104580444422552</v>
+        <v>0.4447158032453963</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>-0.05592745601702422</v>
       </c>
       <c r="AG58">
-        <v>-0.06342941274125019</v>
+        <v>-0.1342321928212778</v>
       </c>
       <c r="AH58">
-        <v>0.007348963985919974</v>
+        <v>-0.04593331703619739</v>
       </c>
       <c r="AI58">
-        <v>0.08631584100647914</v>
+        <v>-0.00150192905831094</v>
       </c>
       <c r="AJ58">
-        <v>-0.03972707615218123</v>
+        <v>0.0034036776212047</v>
       </c>
       <c r="AK58">
-        <v>-0.1012791506702249</v>
+        <v>0.07659073990163846</v>
       </c>
       <c r="AL58">
-        <v>0.09064498158163641</v>
+        <v>0.2371680401435531</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>-0.05598785186526414</v>
       </c>
       <c r="AG59">
-        <v>-0.06413320509557693</v>
+        <v>-0.1320500673209509</v>
       </c>
       <c r="AH59">
-        <v>0.008510525752066721</v>
+        <v>-0.04196160283313059</v>
       </c>
       <c r="AI59">
-        <v>0.09004338159482328</v>
+        <v>0.01149320963263675</v>
       </c>
       <c r="AJ59">
-        <v>0.04355923042075054</v>
+        <v>0.04124327424702222</v>
       </c>
       <c r="AK59">
-        <v>0.05520327757388589</v>
+        <v>-0.08082770303377459</v>
       </c>
       <c r="AL59">
-        <v>0.01468632687840788</v>
+        <v>0.04032005313856007</v>
       </c>
       <c r="AM59">
-        <v>0.05883216145324548</v>
+        <v>-0.05071922741070047</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>-0.05596573454570361</v>
       </c>
       <c r="AG60">
-        <v>-0.06394821863840626</v>
+        <v>-0.1319830668231856</v>
       </c>
       <c r="AH60">
-        <v>0.006955469578486399</v>
+        <v>-0.04286285055246991</v>
       </c>
       <c r="AI60">
-        <v>0.08898695947065459</v>
+        <v>0.01345149074012231</v>
       </c>
       <c r="AJ60">
-        <v>0.05149897670508174</v>
+        <v>0.07021223033202072</v>
       </c>
       <c r="AK60">
-        <v>0.07361894048677207</v>
+        <v>0.04919487422026621</v>
       </c>
       <c r="AL60">
-        <v>-0.02569390857036204</v>
+        <v>-0.02160725337569868</v>
       </c>
       <c r="AM60">
-        <v>0.15034024113169</v>
+        <v>-0.02170949984644784</v>
       </c>
       <c r="AN60">
-        <v>0.5201143357573609</v>
+        <v>0.3007752005608911</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>-0.05597087107749584</v>
       </c>
       <c r="AG61">
-        <v>-0.06399702571675162</v>
+        <v>-0.131772313065508</v>
       </c>
       <c r="AH61">
-        <v>0.007197333490894748</v>
+        <v>-0.04265840470698136</v>
       </c>
       <c r="AI61">
-        <v>0.08913210885017857</v>
+        <v>0.01175960002426226</v>
       </c>
       <c r="AJ61">
-        <v>0.03254994313469846</v>
+        <v>0.05300721967267838</v>
       </c>
       <c r="AK61">
-        <v>0.02603474330856966</v>
+        <v>0.05355732470341684</v>
       </c>
       <c r="AL61">
-        <v>0.007616221598997242</v>
+        <v>0.04047080777384581</v>
       </c>
       <c r="AM61">
-        <v>-0.01753399216366653</v>
+        <v>0.05234293492814317</v>
       </c>
       <c r="AN61">
-        <v>-0.03812982185035306</v>
+        <v>0.3872349379103772</v>
       </c>
       <c r="AO61">
-        <v>0.1894073304522926</v>
+        <v>0.2909811857727292</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>-0.06398417096290905</v>
+        <v>-0.1317602518072034</v>
       </c>
       <c r="AH62">
-        <v>0.007292119451502429</v>
+        <v>-0.04270477843202872</v>
       </c>
       <c r="AI62">
-        <v>0.08913912103324084</v>
+        <v>0.01194631614128436</v>
       </c>
       <c r="AJ62">
-        <v>0.03566276262371278</v>
+        <v>0.05174508756256645</v>
       </c>
       <c r="AK62">
-        <v>0.03259904549552769</v>
+        <v>0.02093683447326427</v>
       </c>
       <c r="AL62">
-        <v>0.0128555925461768</v>
+        <v>0.04147774784617116</v>
       </c>
       <c r="AM62">
-        <v>-0.00964093495214708</v>
+        <v>0.02482419491073158</v>
       </c>
       <c r="AN62">
-        <v>-0.2014724630006378</v>
+        <v>-0.1776277501685884</v>
       </c>
       <c r="AO62">
-        <v>-0.05270612891795398</v>
+        <v>0.1499767807139307</v>
       </c>
       <c r="AP62">
-        <v>-0.1365885249587824</v>
+        <v>0.3288853845596842</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.007247256038200207</v>
+        <v>-0.04269425994431776</v>
       </c>
       <c r="AI63">
-        <v>0.08912974357910283</v>
+        <v>0.01206841433436221</v>
       </c>
       <c r="AJ63">
-        <v>0.03874598177063717</v>
+        <v>0.05596640623634157</v>
       </c>
       <c r="AK63">
-        <v>0.04409459075219761</v>
+        <v>0.02835015437021739</v>
       </c>
       <c r="AL63">
-        <v>0.001086275848319654</v>
+        <v>0.02610728417078322</v>
       </c>
       <c r="AM63">
-        <v>0.04307418305558035</v>
+        <v>0.007591301103019737</v>
       </c>
       <c r="AN63">
-        <v>0.02839413569925489</v>
+        <v>-0.07445093348857254</v>
       </c>
       <c r="AO63">
-        <v>-0.07841193976960364</v>
+        <v>-0.143476597187774</v>
       </c>
       <c r="AP63">
-        <v>-0.2516977429823907</v>
+        <v>-0.04707319872192598</v>
       </c>
       <c r="AQ63">
-        <v>-0.1462609076946982</v>
+        <v>-0.04437064751059491</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_TRDBAL_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_TRDBAL_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>0.5884399141976939</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>-0.4287549028699392</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>0.2645310717643088</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>0.09568134688214225</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>0.1820944321712297</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>0.2068503057761795</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>0.07476776657269808</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>0.07720938657380286</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>-0.1423510223056532</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>0.3161142080852657</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>0.2425924894418131</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>0.1462364465881016</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>-0.1163296368791904</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0.09459151124869007</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>0.2371680401435531</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>-0.05071922741070047</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>0.3007752005608911</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>0.2909811857727292</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.3288853845596842</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>-0.04437064751059491</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>-0.3672931947423395</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>-0.2349251492717611</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>0.1477315643901598</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>-0.1423875156511647</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>-0.1712976904262997</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>-0.06973190223682513</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>0.3264502979277185</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>0.5374408776787802</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.1798435331191272</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>-0.1047373886068518</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>0.1715297545448939</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>0.1510250314585848</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>-0.08955556109981566</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>-0.002717645765269422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>-0.1381332057268065</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>-0.136875628108055</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>-0.03715673564338814</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>-0.05727680561923214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>-0.03888380201712024</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>-0.02351950773205924</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>-0.07411166539440739</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>-0.05824996978169377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>-0.06693458902910257</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>-0.0640752710254897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>-0.05587054962715828</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>-0.05053803152041143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>-0.0604604648519208</v>
+      </c>
+      <c r="AW72">
+        <v>-0.05090228640356263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>-0.05570051844454853</v>
       </c>
     </row>
   </sheetData>
